--- a/data/trans_orig/P14C98-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C98-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{149C67FB-3BD2-4473-AB32-DE1FDDF8DD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA62E15-D68B-4804-8038-D98C0C859826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{938A0E27-5B12-460F-B2A9-D45BC41D7207}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77FD0B93-7CEB-41FA-9CD4-E03452FE319B}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="67">
   <si>
     <t>Población según el tiempo de diagnóstico de la enfermedad 2 en 2015 (Tasa respuesta: 0,33%)</t>
   </si>
@@ -182,52 +182,49 @@
     <t>75,52%</t>
   </si>
   <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>41,19%</t>
+    <t>46,5%</t>
   </si>
   <si>
     <t>77,62%</t>
   </si>
   <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
-    <t>42,96%</t>
-  </si>
-  <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>58,81%</t>
+    <t>53,5%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>38,68%</t>
+    <t>34,51%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -236,7 +233,7 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>23,16%</t>
+    <t>20,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -651,7 +648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D77D1A5-7345-4916-878F-37C686288798}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8654F222-AB2A-4441-9C20-C14B31E210E7}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2036,7 +2033,7 @@
         <v>19</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2045,13 +2042,13 @@
         <v>2151</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2060,13 +2057,13 @@
         <v>4221</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2081,28 +2078,28 @@
         <v>1084</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2111,13 +2108,13 @@
         <v>1084</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,7 +2170,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C98-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C98-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA62E15-D68B-4804-8038-D98C0C859826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00998873-FD60-41EA-8D58-6A369448771B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77FD0B93-7CEB-41FA-9CD4-E03452FE319B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EB0A66F4-7F5D-4E47-B383-5E2229927BAD}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="67">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la enfermedad 2 en 2015 (Tasa respuesta: 0,33%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="68">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la enfermedad 2 en 2016 (Tasa respuesta: 0,33%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -161,7 +161,7 @@
     <t>63,43%</t>
   </si>
   <si>
-    <t>17,82%</t>
+    <t>18,07%</t>
   </si>
   <si>
     <t>36,61%</t>
@@ -173,7 +173,7 @@
     <t>36,57%</t>
   </si>
   <si>
-    <t>82,18%</t>
+    <t>81,93%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -182,49 +182,52 @@
     <t>75,52%</t>
   </si>
   <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>46,5%</t>
+    <t>36,96%</t>
   </si>
   <si>
     <t>77,62%</t>
   </si>
   <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
+    <t>42,66%</t>
+  </si>
+  <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>53,5%</t>
+    <t>63,04%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>34,51%</t>
+    <t>39,94%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -233,7 +236,7 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>20,95%</t>
+    <t>22,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -648,7 +651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8654F222-AB2A-4441-9C20-C14B31E210E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ACDE76-A320-4DE7-A327-5BA00C2A762B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2033,7 +2036,7 @@
         <v>19</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2042,13 +2045,13 @@
         <v>2151</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2057,13 +2060,13 @@
         <v>4221</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,13 +2081,13 @@
         <v>1084</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2099,7 +2102,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2108,13 +2111,13 @@
         <v>1084</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,7 +2173,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
